--- a/pmp.xlsx
+++ b/pmp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="248">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -516,6 +516,511 @@
   </si>
   <si>
     <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目预算被证明是不准确的，SPI是1.1。团队成员背离了活动属性，发起人将自己安置在变更控制委员会里，项目经理应该做什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说服发起人离开变更控制委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新计算项目进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新估算活动属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算成本绩效指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个制造项目是在有限的时间约束条件下开展的。交付时，一大批部件必须废弃，因为它们不满足行业最低要求。若要防止这个问题，项目经理应该做什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究行业标准和事业环境因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动质量审计，确保遵循计划的质量保证活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高对风险识别、减轻和应急的关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得发起人对延长项目工期的批准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目任务如下：
+任务A（持续时间4天）  任务B（持续时间3天）  任务C（持续时间4天）  
+任务D（持续时间2天）  任务E（持续时间3天）  任务F（持续时间4天）
+任务D和任务F只能在任务C结束后开始。任务A和任务B可以在任务C开始后的任何时间内开始，但是必须在项目结束前完成。任务E只能在任务D完成后开始。任务B是在任务C开始一天后才开始的，在执行任务B过程中，发生了一件例外事项，导致该任务延期2天。为了确保项目按时完成，应采取什么措施？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为任务B添加更多资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要采取任何措施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为关键路径上的任务重新分配资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为任务D添加更多的资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某项目在一个大型操作环境中使用生产性基础设施，此时项目发生了一次事故。但是实施了一个技术解决方案来解决问题。在这种情况下，一名项目干系人仍然投诉，这是因为：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目发起人未得到通知，且未批准所选择的方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险未识别、评估，且在风险日志中更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更管理委员会未得到通知，且事故未进行评估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更造成了一个可能已经导致重大操作影响的风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险应对计划的实施涉及以下哪一项？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控计划的效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险概率和影响评估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定量风险分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定性风险分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目经理希望将质量管理技术引进到项目中。下列哪一个方法可以作为持续质量改进的基础？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数估算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P-D-C-A环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标杆对照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本效益分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据项目计划，截至目前为止，按每小时50美元的费率，1000小时的工作已完成。项目经理计算了实际成本，意识到他们已经按每小时50美元的费率，完成1200小时40,000美元的工作。那么项目的成本绩效指数是多少？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目状态会议的目的是：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换项目信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队成员汇报他们正在做什么。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布工作授权。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认团队提交的成本是准确的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目经理完成了项目章程，项目经理需要做的下一个活动是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建详细的干系人登记册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建需求文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建干系人管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建质量管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一家公司的组织形式是弱矩阵。项目经理的职权和可资使用的资源都非常有限，那么在这样的组织结构里，项目经理的角色是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协调员和催交员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分包商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">项目组合经理 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参阅PMBOK•P229可知，由休哈特提出并经戴明完善的PDCA环是持续质量改进的基础。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EV=50*1200=6万，AC=4万，CPI=EV/AC=6/4=1.5，所以本题选择A。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目状态会议在PMBOK·P352出现，这是一次定期召开的会议。这个会议，从本质上看，是一个全面评估的大会。具体内容包括：项目的详细计划；项目绩效的控制程序和方法；项目进行过程中，面临的风险和不确定性的判别和控制；项目小组的人员的安排；项目小组内部交流和沟通界面的形成；项目进行过程中，报告制度安排；客户关系；分包和承包者关系；与其他机构的关系；会计与核算的方式`内容和结果；项目进行过程中，其他没有言明但重要的事项。综合起来看，唯有答案A符合要求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为完成项目章程后,接下来做的工作应该是识别干系人。而A项是识别干系人的输出。另外，假定选择B，但是任何需求都来源于人，没有干系人，何来需求呢？没有需求，又何来需求文件呢？所以我认为，应该是选识别了干系人，获得了干系人列表（干系人登记册），随后收集干系人的需求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是翻译的问题。注意Coordinator 和Expediter这两个英文单词，在相应的中文版教材中，被译为协调员和联络员。而不是选项A这个的催交员。注意英文是考试的第一语言。参考PMBOK•P23可知。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目接近完工，团队成员向项目经理报告一个会影响到重要期限的问题。每周状态报告将如期发送至主要干系人。项目经理下一步该怎么做？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新问题日志，通知发起人并使用问题升级流程，向干系人报告可能延迟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在下一次状态周报中通知干系人，与他们讨论可能的解决方案，并请求预算和进度延期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核实该问题是否包含在风险计划中；如不在，则应将其包含入内，并编制风险减轻计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新问题日志，将可帮助解决问题的所有人员包含在内，并与干系人就此问题进行沟通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你与项目团队把三点估算方法应用于具有两个活动的关键路径上。下列历时的不确定性都基于±3西格玛置信区间。历时不确定性（定义是最悲观估算-最乐观估算），活动一是18天，活动二是24天，使用PERT公式法，整个关键路径的历时不确定性是多少？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据所给信息无法估算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下列哪一项应包含作为项目启动大会的讨论议题？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要风险、职责范围、高层次预算和进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作分解结构、详细进度、项目计划和风险登记册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量计划、预算、详细进度和工作分解结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章程、干系人分析、预算和项目计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在项目执行阶段，项目团队预计客户可能会提交一系列新的需求。这被认为对项目是有风险的。今天，客户正式告知新的需求将会生效。项目经理下一步应该怎么做？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新风险登记册和提交变更请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对相关风险执行规划风险应对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新风险登记册和风险管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据新的需求调整一个进度表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目的总建筑师和业主代表不能在项目中合作，这对项目进展带来不利影响。项目经理如何对待这个问题？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定一名高级员工作为建筑师和业主代表之间的仲裁人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求总建筑师的一线经理与该建筑师讨论这个问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与项目发起人协商更换关键业主代表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找出总建筑师和业主代表的共同利益，确定可能的方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A项错在上报给发起人并使用问题升级流程；题干中提到，项目接近完工时，有一个问题可能会影响到项目如期完工，那么项目经理就应该及时将这个问题记录在问题日志中，并及时更新问题日志，以便确保每一个干系人知情，促进沟通，对问题有统一认识。要设定问题的制定责任人和解决问题的目标日期。因为未解决的问题往往是导致冲突和项目延迟的主要原因。此题关键是向干系人发布信息时，要如期如实汇报的问题。B项错在“在下一次通知”，应该及时通知；C项错在“编制减轻计划”，因为就算这是一个不确定性因素，解决的办法也不一定就是一种，也许还可以采取别的办法来应对这个风险呢。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1δ=18/6=3，2δ=24/6=4，δ总=（3*3+4*4）开方=5，所以路径历时不确定性=5*6=30天。注意：路径的标准差用总方差的和的开方。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此题要求大家注意的是英文kick-off meeting，而不是inatiating meeting.巧合的是在历次PMP考试中翻译人员常把两个会议都翻译成启动会议。这两次会议怎么区分呢？启动过程阶段的inatiating meeting参加者相对来说是公司的高层和中层，核心的团队成员和关键干系人；而参加kick-off meeting的人员就有普通的基层的团队成员了，因为普通的基层的团队成员在参加本次会议之前尚且不明了项目章程中的内容以及预算情况等等，项目经理有必要在此会议上对参加会议的团队成员作一概括性的交代。BC两项中的“详细进度”不可能在kick-off meeting上讨论，可以排除，而A项中的“主要风险和高层次预算”是项目章程的内容，也就是说D包含了A。所以本题选择D。D项中的“预算”应指投入到项目中的预算总体基数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">题干中的关键句是“客户被正式告知新的需求将会生效”，这需要及时更新风险登记册，因为题干中使用的是“将会”，所以对于有风险的新需求的提交，需要客户提交变更请求，然后按照变更流程办理。本题有迷惑性的是C项。C项没有考虑到提交变更请求，同时风险管理计划是一个用来指导项目团队成员描述将如何安排与实施项目风险管理、分析、应对以及监控的一个计划。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总建筑师与业主代表有冲突，解决的最好办法是先私下解决，找到双方能让双方在一定程度上满意的方案，也就是双方的共性，确定一个能够照顾双方共性的方案。如果私下不能解决问题，项目经理再正式出面解决该问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此题的关键字为“项目预算被证明是不准确的”，讲的是预算，与成本有关的事，属于规划过程组。项目预算决定了被批准用于项目的资金。将根据批准的预算来考核项目成本绩效。题目考察的是项目经理对4 种情况的处理：
+A 不正确，因为CCB 中可以包含发起人
+B 不正确，SPI 为1.1 说明进度正常
+C 不正确，活动属性被偏离应调查原因而不是进行重新估算
+D 正确。
+需要将SPI和CPI结合起来，查看项目的实际进展状况；SPI进度超前，排除B；团队背离了活动属性，应该进行根本原因分析，排除C；发起人可以在CCB中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施质量审计可以有效避免产品在交付前出现某种程度的缺陷，使产品在交付前符合质量改进的需要。确保产品符合最佳实践和识别它们的全部差距和不足，力争不要让有缺陷的产品落入客户手中。唯有有效实施质量审计可以做到这一点。把缺陷消灭在萌芽状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先根据题干找出关键路径，可知是ADE，而B不在关键路径上，所以不需采取任何措施。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发生了事故，干系人投诉，排除A（没发起人什么事），D（未提及），C（没提到这个技术解决方案和CCB有什么关系，也没说干系人和CCB有什么关系），B选项更可能是因为这个事故之前没有识别出，评估好，没记录导致了干系人的不满。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控过程针对的是整个项目生命周期，所以当风险应对计划实施后，得看到应对后的效果如何，而这正好是控制风险过程需要做的，因为应对计划实施后，有时候不可能马上就见效，需要一段时间来检测、跟踪、监督、识别以及评估，以期不断优化风险应对。所以本题选择A。BCD三项都在实施风险应对计划之前需要完成，所以不选。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>项目经理正在制定一个项目计划。项目赞助人得知后，立即让项目经理针对项目成本开展初始评估，以满足未来财政预算的要求。项目经理采用以下哪一项评估项目成本？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自下而上估算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三点估算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类比估算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立参数模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A公司为B公司制定了一份商务报价。B公司接受了报价，并要求A公司开始项目。公司A接下来应该怎么做？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织项目团队和主要专家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建工作分解结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备项目高层次的范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行成本效益分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户索取在某个项目中正在开发的产品相关信息。但是可提供的产品信息极少。项目经理接下来应该制定什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作分解结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干系人登记册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某项目经理目前负责一个项目，旨在推出一项新的网络服务。项目经理计划让支持团队执行此项工作。支持团队由于不具备必要的专业知识而不愿承担工作，并声称他们从未听说过该项目。造成该问题的根本原因是什么?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未实施沟通计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目经理未能让所有利害关系者参与进来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持团队不愿承担此项工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目经理未对缺乏专业知识的风险加以识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某个项目包括三项主要活动：A. 欧元兑换开发 (5 个星期); B. 总帐开发 (6 个星期); C.CRM 实施 (7个星期). 活动B 必须在活动A 完成后才能开始，另外还需要一个星期进行资源事先分派。活动C 只能在活动B 开始一个星期后才能开始。项目完工的最短工期要多长？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 个星期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 个星期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 个星期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 个星期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -876,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -918,511 +1423,1063 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>66</v>
+      <c r="A2" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>246</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>222</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>38</v>
+        <v>224</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>67</v>
+      <c r="A3" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>247</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>227</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>68</v>
+      <c r="A4" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>231</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>247</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>232</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>47</v>
+        <v>233</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>48</v>
+        <v>234</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>69</v>
+      <c r="A5" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>236</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>237</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>238</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>53</v>
+        <v>239</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>70</v>
+      <c r="A6" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>241</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>247</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>242</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
+        <v>243</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>58</v>
+        <v>244</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>59</v>
+        <v>245</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="1">
-        <v>36</v>
-      </c>
-      <c r="E12" s="1">
-        <v>18</v>
-      </c>
-      <c r="F12" s="1">
-        <v>15</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
+        <v>73</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
+        <v>74</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1">
+        <v>36</v>
+      </c>
+      <c r="E17" s="1">
+        <v>18</v>
+      </c>
+      <c r="F17" s="1">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1">
+        <v>6</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>78</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
-        <v>83</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>80</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>81</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>82</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>83</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>84</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
+    <row r="26" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
         <v>85</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D22" s="1"/>
+    <row r="27" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>86</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>87</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>88</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>89</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>90</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>91</v>
+      </c>
+      <c r="B32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" t="s">
+        <v>127</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>92</v>
+      </c>
+      <c r="B33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" t="s">
+        <v>131</v>
+      </c>
+      <c r="G33" t="s">
+        <v>132</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="216" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>93</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" t="s">
+        <v>136</v>
+      </c>
+      <c r="G34" t="s">
+        <v>137</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>94</v>
+      </c>
+      <c r="B35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" t="s">
+        <v>141</v>
+      </c>
+      <c r="G35" t="s">
+        <v>142</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>95</v>
+      </c>
+      <c r="B36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36" t="s">
+        <v>147</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>96</v>
+      </c>
+      <c r="B37" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" t="s">
+        <v>155</v>
+      </c>
+      <c r="F37" t="s">
+        <v>156</v>
+      </c>
+      <c r="G37" t="s">
+        <v>157</v>
+      </c>
+      <c r="H37" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>97</v>
+      </c>
+      <c r="B38" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38">
+        <v>1.5</v>
+      </c>
+      <c r="E38">
+        <v>1.2</v>
+      </c>
+      <c r="F38">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="G38">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="H38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D39" t="s">
+        <v>160</v>
+      </c>
+      <c r="E39" t="s">
+        <v>161</v>
+      </c>
+      <c r="F39" t="s">
+        <v>162</v>
+      </c>
+      <c r="G39" t="s">
+        <v>163</v>
+      </c>
+      <c r="H39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>99</v>
+      </c>
+      <c r="B40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" t="s">
+        <v>174</v>
+      </c>
+      <c r="D40" t="s">
+        <v>165</v>
+      </c>
+      <c r="E40" t="s">
+        <v>166</v>
+      </c>
+      <c r="F40" t="s">
+        <v>167</v>
+      </c>
+      <c r="G40" t="s">
+        <v>168</v>
+      </c>
+      <c r="H40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>100</v>
+      </c>
+      <c r="B41" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" t="s">
+        <v>174</v>
+      </c>
+      <c r="D41" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41" t="s">
+        <v>172</v>
+      </c>
+      <c r="G41" t="s">
+        <v>173</v>
+      </c>
+      <c r="H41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/pmp.xlsx
+++ b/pmp.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHP\AppServ\www\MyPHP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97344F0A-0E29-46AB-B579-2E9AF8755C5A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="12105"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="243">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -899,23 +905,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
     <t>项目经理正在制定一个项目计划。项目赞助人得知后，立即让项目经理针对项目成本开展初始评估，以满足未来财政预算的要求。项目经理采用以下哪一项评估项目成本？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1027,7 +1016,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1067,15 +1056,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1089,6 +1075,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1137,7 +1126,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1170,9 +1159,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1205,6 +1211,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1380,20 +1403,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="31.75" customWidth="1"/>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="7" max="7" width="12.375" customWidth="1"/>
-    <col min="8" max="8" width="50.875" customWidth="1"/>
+    <col min="1" max="1" width="12.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="50.875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -1423,124 +1448,119 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1">
+        <v>61</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>62</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>65</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
@@ -1564,7 +1584,6 @@
       <c r="G7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
@@ -1588,7 +1607,6 @@
       <c r="G8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
@@ -1664,7 +1682,6 @@
       <c r="G11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
@@ -1688,7 +1705,6 @@
       <c r="G12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
@@ -1712,7 +1728,6 @@
       <c r="G13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
@@ -1736,7 +1751,6 @@
       <c r="G14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
@@ -1760,7 +1774,6 @@
       <c r="G15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
@@ -1784,7 +1797,6 @@
       <c r="G16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
@@ -1964,7 +1976,7 @@
       <c r="G23" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="2" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2180,22 +2192,22 @@
       <c r="A32" s="1">
         <v>91</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="1" t="s">
         <v>127</v>
       </c>
       <c r="H32" s="2" t="s">
@@ -2206,22 +2218,22 @@
       <c r="A33" s="1">
         <v>92</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="1" t="s">
         <v>132</v>
       </c>
       <c r="H33" s="2" t="s">
@@ -2235,19 +2247,19 @@
       <c r="B34" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="1" t="s">
         <v>137</v>
       </c>
       <c r="H34" s="2" t="s">
@@ -2258,22 +2270,22 @@
       <c r="A35" s="1">
         <v>94</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="1" t="s">
         <v>142</v>
       </c>
       <c r="H35" s="2" t="s">
@@ -2284,22 +2296,22 @@
       <c r="A36" s="1">
         <v>95</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H36" s="2" t="s">
@@ -2310,25 +2322,25 @@
       <c r="A37" s="1">
         <v>96</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="1" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2336,25 +2348,25 @@
       <c r="A38" s="1">
         <v>97</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>1.5</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>1.2</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>0.83299999999999996</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="1">
         <v>0.66700000000000004</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="1" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2362,25 +2374,25 @@
       <c r="A39" s="1">
         <v>98</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="1" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2388,25 +2400,25 @@
       <c r="A40" s="1">
         <v>99</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="1" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2414,71 +2426,26 @@
       <c r="A41" s="1">
         <v>100</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="1" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="1">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="1">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="1">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="1">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="1">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="1">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="1">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="1">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="1">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2489,7 +2456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2502,7 +2469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
